--- a/BugReport/Halebi_Hospital_Bug_Report.xlsx
+++ b/BugReport/Halebi_Hospital_Bug_Report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Halebi2-master\Halebi2-master\BugReport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89C3FF3C-5391-4700-B8FB-C1ED42E31A3C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A04E729-4DC4-4552-9795-98A109182539}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="869" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="869" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Registeration" sheetId="4" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="QR_Generation_Bottles_Bands" sheetId="44" r:id="rId7"/>
     <sheet name="Milk_Verification" sheetId="45" r:id="rId8"/>
     <sheet name="Milk_Usage_Tracking" sheetId="46" r:id="rId9"/>
+    <sheet name="Send_Message" sheetId="47" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="14">
   <si>
     <t>Actual Result</t>
   </si>
@@ -230,11 +231,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -255,6 +253,10 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -558,153 +560,338 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
+      <c r="A3" s="12"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
+      <c r="A4" s="12"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
     </row>
     <row r="5" spans="1:6" ht="32.25" customHeight="1">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="6"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="5"/>
     </row>
     <row r="6" spans="1:6" ht="32.25" customHeight="1">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="6"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="5"/>
     </row>
     <row r="7" spans="1:6" ht="32.25" customHeight="1">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="6"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="5"/>
     </row>
     <row r="8" spans="1:6" ht="32.25" customHeight="1">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="6"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="5"/>
     </row>
     <row r="9" spans="1:6" ht="32.25" customHeight="1">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="6"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="5"/>
     </row>
     <row r="10" spans="1:6" ht="32.25" customHeight="1">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="6"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="5"/>
     </row>
     <row r="11" spans="1:6" ht="32.25" customHeight="1">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="6"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="5"/>
     </row>
     <row r="12" spans="1:6" ht="32.25" customHeight="1">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="9"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="8"/>
     </row>
     <row r="13" spans="1:6" ht="32.25" customHeight="1">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="10"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="6"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="5"/>
     </row>
     <row r="14" spans="1:6" ht="32.25" customHeight="1">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="11"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="6"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="5"/>
     </row>
     <row r="15" spans="1:6" ht="32.25" customHeight="1">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="11"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="6"/>
-    </row>
+      <c r="B15" s="10"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="A1:F4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="B14:F14"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F9BD3EB-E568-4259-85D3-9FB93343C031}">
+  <dimension ref="A1:F18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q6" sqref="Q6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="20.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="1" customFormat="1">
+      <c r="A1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+    </row>
+    <row r="2" spans="1:6" s="1" customFormat="1">
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+    </row>
+    <row r="3" spans="1:6" s="1" customFormat="1">
+      <c r="A3" s="12"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+    </row>
+    <row r="4" spans="1:6" s="1" customFormat="1">
+      <c r="A4" s="12"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+    </row>
+    <row r="5" spans="1:6" s="1" customFormat="1" ht="33" customHeight="1">
+      <c r="A5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="5"/>
+    </row>
+    <row r="6" spans="1:6" s="1" customFormat="1" ht="33" customHeight="1">
+      <c r="A6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="5"/>
+    </row>
+    <row r="7" spans="1:6" s="1" customFormat="1" ht="33" customHeight="1">
+      <c r="A7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="5"/>
+    </row>
+    <row r="8" spans="1:6" s="1" customFormat="1" ht="33" customHeight="1">
+      <c r="A8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="5"/>
+    </row>
+    <row r="9" spans="1:6" s="1" customFormat="1" ht="33" customHeight="1">
+      <c r="A9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="5"/>
+    </row>
+    <row r="10" spans="1:6" s="1" customFormat="1" ht="33" customHeight="1">
+      <c r="A10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="5"/>
+    </row>
+    <row r="11" spans="1:6" s="1" customFormat="1" ht="33" customHeight="1">
+      <c r="A11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="5"/>
+    </row>
+    <row r="12" spans="1:6" s="1" customFormat="1" ht="33" customHeight="1">
+      <c r="A12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="6"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="8"/>
+    </row>
+    <row r="13" spans="1:6" s="1" customFormat="1" ht="33" customHeight="1">
+      <c r="A13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="9"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="5"/>
+    </row>
+    <row r="14" spans="1:6" s="1" customFormat="1" ht="33" customHeight="1">
+      <c r="A14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="10"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="5"/>
+    </row>
+    <row r="15" spans="1:6" s="1" customFormat="1" ht="33" customHeight="1">
+      <c r="A15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="10"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="5"/>
+    </row>
+    <row r="16" spans="1:6" s="1" customFormat="1"/>
+    <row r="17" s="1" customFormat="1"/>
+    <row r="18" s="1" customFormat="1"/>
   </sheetData>
   <mergeCells count="12">
     <mergeCell ref="B10:F10"/>
@@ -720,9 +907,7 @@
     <mergeCell ref="B8:F8"/>
     <mergeCell ref="B9:F9"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -749,155 +934,160 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
+      <c r="A3" s="12"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
+      <c r="A4" s="12"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
     </row>
     <row r="5" spans="1:6" ht="32.25" customHeight="1">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="6"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="5"/>
     </row>
     <row r="6" spans="1:6" ht="32.25" customHeight="1">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="6"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="5"/>
     </row>
     <row r="7" spans="1:6" ht="32.25" customHeight="1">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="6"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="5"/>
     </row>
     <row r="8" spans="1:6" ht="32.25" customHeight="1">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="6"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="5"/>
     </row>
     <row r="9" spans="1:6" ht="32.25" customHeight="1">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="6"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="5"/>
     </row>
     <row r="10" spans="1:6" ht="32.25" customHeight="1">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="6"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="5"/>
     </row>
     <row r="11" spans="1:6" ht="32.25" customHeight="1">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="6"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="5"/>
     </row>
     <row r="12" spans="1:6" ht="32.25" customHeight="1">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="9"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="8"/>
     </row>
     <row r="13" spans="1:6" ht="32.25" customHeight="1">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="10"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="6"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="5"/>
     </row>
     <row r="14" spans="1:6" ht="32.25" customHeight="1">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="11"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="6"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="5"/>
     </row>
     <row r="15" spans="1:6" ht="32.25" customHeight="1">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="11"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="6"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A1:F4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="B8:F8"/>
     <mergeCell ref="B14:F14"/>
     <mergeCell ref="B15:F15"/>
     <mergeCell ref="B9:F9"/>
@@ -905,11 +1095,6 @@
     <mergeCell ref="B11:F11"/>
     <mergeCell ref="B12:F12"/>
     <mergeCell ref="B13:F13"/>
-    <mergeCell ref="A1:F4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="B8:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -938,160 +1123,155 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
+      <c r="A3" s="12"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
+      <c r="A4" s="12"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
     </row>
     <row r="5" spans="1:6" ht="26.25" customHeight="1">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="6"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="5"/>
     </row>
     <row r="6" spans="1:6" ht="26.25" customHeight="1">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="6"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="5"/>
     </row>
     <row r="7" spans="1:6" ht="26.25" customHeight="1">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="6"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="5"/>
     </row>
     <row r="8" spans="1:6" ht="26.25" customHeight="1">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="6"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="5"/>
     </row>
     <row r="9" spans="1:6" ht="26.25" customHeight="1">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="6"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="5"/>
     </row>
     <row r="10" spans="1:6" ht="26.25" customHeight="1">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="6"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="5"/>
     </row>
     <row r="11" spans="1:6" ht="26.25" customHeight="1">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="6"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="5"/>
     </row>
     <row r="12" spans="1:6" ht="26.25" customHeight="1">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="9"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="8"/>
     </row>
     <row r="13" spans="1:6" ht="26.25" customHeight="1">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="10"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="6"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="5"/>
     </row>
     <row r="14" spans="1:6" ht="26.25" customHeight="1">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="11"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="6"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="5"/>
     </row>
     <row r="15" spans="1:6" ht="26.25" customHeight="1">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="11"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="6"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="B14:F14"/>
     <mergeCell ref="B15:F15"/>
     <mergeCell ref="A1:F4"/>
     <mergeCell ref="B5:F5"/>
@@ -1099,6 +1279,11 @@
     <mergeCell ref="B7:F7"/>
     <mergeCell ref="B8:F8"/>
     <mergeCell ref="B9:F9"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="B14:F14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1129,168 +1314,168 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
+      <c r="A3" s="12"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
+      <c r="A4" s="12"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
     </row>
     <row r="5" spans="1:6" ht="31.5" customHeight="1">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="6"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="5"/>
     </row>
     <row r="6" spans="1:6" ht="31.5" customHeight="1">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="6"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="5"/>
     </row>
     <row r="7" spans="1:6" ht="31.5" customHeight="1">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="6"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="5"/>
     </row>
     <row r="8" spans="1:6" ht="31.5" customHeight="1">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="6"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="5"/>
     </row>
     <row r="9" spans="1:6" ht="31.5" customHeight="1">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="6"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="5"/>
     </row>
     <row r="10" spans="1:6" ht="31.5" customHeight="1">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="6"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="5"/>
     </row>
     <row r="11" spans="1:6" ht="31.5" customHeight="1">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="6"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="5"/>
     </row>
     <row r="12" spans="1:6" ht="31.5" customHeight="1">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="9"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="8"/>
     </row>
     <row r="13" spans="1:6" ht="31.5" customHeight="1">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="10"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="6"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="5"/>
     </row>
     <row r="14" spans="1:6" ht="31.5" customHeight="1">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="11"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="6"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="5"/>
     </row>
     <row r="15" spans="1:6" ht="31.5" customHeight="1">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="11"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="6"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="5"/>
     </row>
     <row r="16" spans="1:6" ht="31.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A1:F4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="B10:F10"/>
     <mergeCell ref="B11:F11"/>
     <mergeCell ref="B12:F12"/>
     <mergeCell ref="B13:F13"/>
     <mergeCell ref="B14:F14"/>
     <mergeCell ref="B15:F15"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="A1:F4"/>
-    <mergeCell ref="B5:F5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1319,168 +1504,168 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
+      <c r="A3" s="12"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
+      <c r="A4" s="12"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
     </row>
     <row r="5" spans="1:6" ht="31.5" customHeight="1">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="6"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="5"/>
     </row>
     <row r="6" spans="1:6" ht="31.5" customHeight="1">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="6"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="5"/>
     </row>
     <row r="7" spans="1:6" ht="31.5" customHeight="1">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="6"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="5"/>
     </row>
     <row r="8" spans="1:6" ht="31.5" customHeight="1">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="6"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="5"/>
     </row>
     <row r="9" spans="1:6" ht="31.5" customHeight="1">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="6"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="5"/>
     </row>
     <row r="10" spans="1:6" ht="31.5" customHeight="1">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="6"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="5"/>
     </row>
     <row r="11" spans="1:6" ht="31.5" customHeight="1">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="6"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="5"/>
     </row>
     <row r="12" spans="1:6" ht="31.5" customHeight="1">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="9"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="8"/>
     </row>
     <row r="13" spans="1:6" ht="31.5" customHeight="1">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="10"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="6"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="5"/>
     </row>
     <row r="14" spans="1:6" ht="31.5" customHeight="1">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="11"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="6"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="5"/>
     </row>
     <row r="15" spans="1:6" ht="31.5" customHeight="1">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="11"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="6"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="5"/>
     </row>
     <row r="16" spans="1:6" ht="31.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="A1:F4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="B8:F8"/>
     <mergeCell ref="B11:F11"/>
     <mergeCell ref="B12:F12"/>
     <mergeCell ref="B13:F13"/>
     <mergeCell ref="B14:F14"/>
     <mergeCell ref="B15:F15"/>
-    <mergeCell ref="A1:F4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="B10:F10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1509,161 +1694,156 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
+      <c r="A3" s="12"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
+      <c r="A4" s="12"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
     </row>
     <row r="5" spans="1:6" ht="31.5" customHeight="1">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="6"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="5"/>
     </row>
     <row r="6" spans="1:6" ht="31.5" customHeight="1">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="6"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="5"/>
     </row>
     <row r="7" spans="1:6" ht="31.5" customHeight="1">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="6"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="5"/>
     </row>
     <row r="8" spans="1:6" ht="31.5" customHeight="1">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="6"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="5"/>
     </row>
     <row r="9" spans="1:6" ht="31.5" customHeight="1">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="6"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="5"/>
     </row>
     <row r="10" spans="1:6" ht="31.5" customHeight="1">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="6"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="5"/>
     </row>
     <row r="11" spans="1:6" ht="31.5" customHeight="1">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="6"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="5"/>
     </row>
     <row r="12" spans="1:6" ht="31.5" customHeight="1">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="9"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="8"/>
     </row>
     <row r="13" spans="1:6" ht="31.5" customHeight="1">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="10"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="6"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="5"/>
     </row>
     <row r="14" spans="1:6" ht="31.5" customHeight="1">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="11"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="6"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="5"/>
     </row>
     <row r="15" spans="1:6" ht="31.5" customHeight="1">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="11"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="6"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="5"/>
     </row>
     <row r="16" spans="1:6" ht="31.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="B14:F14"/>
     <mergeCell ref="B15:F15"/>
     <mergeCell ref="A1:F4"/>
     <mergeCell ref="B5:F5"/>
@@ -1671,6 +1851,11 @@
     <mergeCell ref="B7:F7"/>
     <mergeCell ref="B8:F8"/>
     <mergeCell ref="B9:F9"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="B14:F14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1699,160 +1884,155 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
+      <c r="A3" s="12"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
+      <c r="A4" s="12"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
     </row>
     <row r="5" spans="1:6" ht="42.75" customHeight="1">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="6"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="5"/>
     </row>
     <row r="6" spans="1:6" ht="42.75" customHeight="1">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="6"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="5"/>
     </row>
     <row r="7" spans="1:6" ht="42.75" customHeight="1">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="6"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="5"/>
     </row>
     <row r="8" spans="1:6" ht="42.75" customHeight="1">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="6"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="5"/>
     </row>
     <row r="9" spans="1:6" ht="42.75" customHeight="1">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="6"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="5"/>
     </row>
     <row r="10" spans="1:6" ht="42.75" customHeight="1">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="6"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="5"/>
     </row>
     <row r="11" spans="1:6" ht="42.75" customHeight="1">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="6"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="5"/>
     </row>
     <row r="12" spans="1:6" ht="42.75" customHeight="1">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="9"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="8"/>
     </row>
     <row r="13" spans="1:6" ht="42.75" customHeight="1">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="10"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="6"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="5"/>
     </row>
     <row r="14" spans="1:6" ht="42.75" customHeight="1">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="11"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="6"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="5"/>
     </row>
     <row r="15" spans="1:6" ht="42.75" customHeight="1">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="11"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="6"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="B14:F14"/>
     <mergeCell ref="B15:F15"/>
     <mergeCell ref="A1:F4"/>
     <mergeCell ref="B5:F5"/>
@@ -1860,6 +2040,11 @@
     <mergeCell ref="B7:F7"/>
     <mergeCell ref="B8:F8"/>
     <mergeCell ref="B9:F9"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="B14:F14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1888,160 +2073,155 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
+      <c r="A3" s="12"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
+      <c r="A4" s="12"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
     </row>
     <row r="5" spans="1:6" ht="36.75" customHeight="1">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="6"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="5"/>
     </row>
     <row r="6" spans="1:6" ht="36.75" customHeight="1">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="6"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="5"/>
     </row>
     <row r="7" spans="1:6" ht="36.75" customHeight="1">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="6"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="5"/>
     </row>
     <row r="8" spans="1:6" ht="36.75" customHeight="1">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="6"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="5"/>
     </row>
     <row r="9" spans="1:6" ht="36.75" customHeight="1">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="6"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="5"/>
     </row>
     <row r="10" spans="1:6" ht="36.75" customHeight="1">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="6"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="5"/>
     </row>
     <row r="11" spans="1:6" ht="36.75" customHeight="1">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="6"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="5"/>
     </row>
     <row r="12" spans="1:6" ht="36.75" customHeight="1">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="9"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="8"/>
     </row>
     <row r="13" spans="1:6" ht="36.75" customHeight="1">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="10"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="6"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="5"/>
     </row>
     <row r="14" spans="1:6" ht="36.75" customHeight="1">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="11"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="6"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="5"/>
     </row>
     <row r="15" spans="1:6" ht="36.75" customHeight="1">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="11"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="6"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="B14:F14"/>
     <mergeCell ref="B15:F15"/>
     <mergeCell ref="A1:F4"/>
     <mergeCell ref="B5:F5"/>
@@ -2049,6 +2229,11 @@
     <mergeCell ref="B7:F7"/>
     <mergeCell ref="B8:F8"/>
     <mergeCell ref="B9:F9"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="B14:F14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2058,8 +2243,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1276F2D7-A698-4C6B-BDE2-9A1596771C81}">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A18" sqref="A1:XFD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2076,160 +2261,155 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
+      <c r="A3" s="12"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
+      <c r="A4" s="12"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
     </row>
     <row r="5" spans="1:6" ht="33" customHeight="1">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="6"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="5"/>
     </row>
     <row r="6" spans="1:6" ht="33" customHeight="1">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="6"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="5"/>
     </row>
     <row r="7" spans="1:6" ht="33" customHeight="1">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="6"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="5"/>
     </row>
     <row r="8" spans="1:6" ht="33" customHeight="1">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="6"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="5"/>
     </row>
     <row r="9" spans="1:6" ht="33" customHeight="1">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="6"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="5"/>
     </row>
     <row r="10" spans="1:6" ht="33" customHeight="1">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="6"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="5"/>
     </row>
     <row r="11" spans="1:6" ht="33" customHeight="1">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="6"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="5"/>
     </row>
     <row r="12" spans="1:6" ht="33" customHeight="1">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="9"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="8"/>
     </row>
     <row r="13" spans="1:6" ht="33" customHeight="1">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="10"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="6"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="5"/>
     </row>
     <row r="14" spans="1:6" ht="33" customHeight="1">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="11"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="6"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="5"/>
     </row>
     <row r="15" spans="1:6" ht="33" customHeight="1">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="11"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="6"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="B14:F14"/>
     <mergeCell ref="B15:F15"/>
     <mergeCell ref="A1:F4"/>
     <mergeCell ref="B5:F5"/>
@@ -2237,6 +2417,11 @@
     <mergeCell ref="B7:F7"/>
     <mergeCell ref="B8:F8"/>
     <mergeCell ref="B9:F9"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="B14:F14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/BugReport/Halebi_Hospital_Bug_Report.xlsx
+++ b/BugReport/Halebi_Hospital_Bug_Report.xlsx
@@ -8,21 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Halebi2-master\Halebi2-master\BugReport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A04E729-4DC4-4552-9795-98A109182539}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97AB8FD3-CC95-449B-B174-29538FACA206}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="869" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="869" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Registeration" sheetId="4" r:id="rId1"/>
-    <sheet name="Login" sheetId="39" r:id="rId2"/>
-    <sheet name="BabyForm" sheetId="40" r:id="rId3"/>
-    <sheet name="Biometeric" sheetId="41" r:id="rId4"/>
-    <sheet name="MomForm" sheetId="42" r:id="rId5"/>
-    <sheet name="EBM_Milk_Delievery" sheetId="43" r:id="rId6"/>
-    <sheet name="QR_Generation_Bottles_Bands" sheetId="44" r:id="rId7"/>
-    <sheet name="Milk_Verification" sheetId="45" r:id="rId8"/>
-    <sheet name="Milk_Usage_Tracking" sheetId="46" r:id="rId9"/>
-    <sheet name="Send_Message" sheetId="47" r:id="rId10"/>
+    <sheet name="Add_Verification" sheetId="48" r:id="rId1"/>
+    <sheet name="Registeration" sheetId="4" r:id="rId2"/>
+    <sheet name="Login" sheetId="39" r:id="rId3"/>
+    <sheet name="BabyForm" sheetId="40" r:id="rId4"/>
+    <sheet name="Biometeric" sheetId="41" r:id="rId5"/>
+    <sheet name="MomForm" sheetId="42" r:id="rId6"/>
+    <sheet name="EBM_Milk_Delievery" sheetId="43" r:id="rId7"/>
+    <sheet name="QR_Generation_Bottles_Bands" sheetId="44" r:id="rId8"/>
+    <sheet name="Milk_Verification" sheetId="45" r:id="rId9"/>
+    <sheet name="Milk_Usage_Tracking" sheetId="46" r:id="rId10"/>
+    <sheet name="Send_Message" sheetId="47" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="14">
   <si>
     <t>Actual Result</t>
   </si>
@@ -231,17 +232,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -250,13 +259,6 @@
     <xf numFmtId="164" fontId="8" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -537,6 +539,559 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3E7A917-BDC1-4DA0-BD09-DEAA555518ED}">
+  <dimension ref="A1:F15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="20.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+    </row>
+    <row r="5" spans="1:6" ht="33" customHeight="1">
+      <c r="A5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="6"/>
+    </row>
+    <row r="6" spans="1:6" ht="33" customHeight="1">
+      <c r="A6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="9"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="6"/>
+    </row>
+    <row r="7" spans="1:6" ht="33" customHeight="1">
+      <c r="A7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="9"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" spans="1:6" ht="33" customHeight="1">
+      <c r="A8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="9"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="6"/>
+    </row>
+    <row r="9" spans="1:6" ht="33" customHeight="1">
+      <c r="A9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="9"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="6"/>
+    </row>
+    <row r="10" spans="1:6" ht="33" customHeight="1">
+      <c r="A10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="9"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="6"/>
+    </row>
+    <row r="11" spans="1:6" ht="33" customHeight="1">
+      <c r="A11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" spans="1:6" ht="33" customHeight="1">
+      <c r="A12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="10"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="12"/>
+    </row>
+    <row r="13" spans="1:6" ht="33" customHeight="1">
+      <c r="A13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="13"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" spans="1:6" ht="33" customHeight="1">
+      <c r="A14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="4"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="6"/>
+    </row>
+    <row r="15" spans="1:6" ht="33" customHeight="1">
+      <c r="A15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="4"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="A1:F4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B9:F9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1276F2D7-A698-4C6B-BDE2-9A1596771C81}">
+  <dimension ref="A1:F15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A18" sqref="A1:XFD18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="23.28515625" customWidth="1"/>
+    <col min="2" max="2" width="25.28515625" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" customWidth="1"/>
+    <col min="4" max="4" width="36" customWidth="1"/>
+    <col min="5" max="5" width="34.85546875" customWidth="1"/>
+    <col min="6" max="6" width="35" customWidth="1"/>
+    <col min="7" max="7" width="25.28515625" customWidth="1"/>
+    <col min="8" max="8" width="23.5703125" customWidth="1"/>
+    <col min="9" max="9" width="26.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+    </row>
+    <row r="5" spans="1:6" ht="33" customHeight="1">
+      <c r="A5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="6"/>
+    </row>
+    <row r="6" spans="1:6" ht="33" customHeight="1">
+      <c r="A6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="9"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="6"/>
+    </row>
+    <row r="7" spans="1:6" ht="33" customHeight="1">
+      <c r="A7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="9"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" spans="1:6" ht="33" customHeight="1">
+      <c r="A8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="9"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="6"/>
+    </row>
+    <row r="9" spans="1:6" ht="33" customHeight="1">
+      <c r="A9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="9"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="6"/>
+    </row>
+    <row r="10" spans="1:6" ht="33" customHeight="1">
+      <c r="A10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="9"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="6"/>
+    </row>
+    <row r="11" spans="1:6" ht="33" customHeight="1">
+      <c r="A11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" spans="1:6" ht="33" customHeight="1">
+      <c r="A12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="10"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="12"/>
+    </row>
+    <row r="13" spans="1:6" ht="33" customHeight="1">
+      <c r="A13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="13"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" spans="1:6" ht="33" customHeight="1">
+      <c r="A14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="4"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="6"/>
+    </row>
+    <row r="15" spans="1:6" ht="33" customHeight="1">
+      <c r="A15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="4"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="A1:F4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="B14:F14"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F9BD3EB-E568-4259-85D3-9FB93343C031}">
+  <dimension ref="A1:F18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q6" sqref="Q6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="20.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="1" customFormat="1">
+      <c r="A1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+    </row>
+    <row r="2" spans="1:6" s="1" customFormat="1">
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+    </row>
+    <row r="3" spans="1:6" s="1" customFormat="1">
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+    </row>
+    <row r="4" spans="1:6" s="1" customFormat="1">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+    </row>
+    <row r="5" spans="1:6" s="1" customFormat="1" ht="33" customHeight="1">
+      <c r="A5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="6"/>
+    </row>
+    <row r="6" spans="1:6" s="1" customFormat="1" ht="33" customHeight="1">
+      <c r="A6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="9"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="6"/>
+    </row>
+    <row r="7" spans="1:6" s="1" customFormat="1" ht="33" customHeight="1">
+      <c r="A7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="9"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" spans="1:6" s="1" customFormat="1" ht="33" customHeight="1">
+      <c r="A8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="9"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="6"/>
+    </row>
+    <row r="9" spans="1:6" s="1" customFormat="1" ht="33" customHeight="1">
+      <c r="A9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="9"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="6"/>
+    </row>
+    <row r="10" spans="1:6" s="1" customFormat="1" ht="33" customHeight="1">
+      <c r="A10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="9"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="6"/>
+    </row>
+    <row r="11" spans="1:6" s="1" customFormat="1" ht="33" customHeight="1">
+      <c r="A11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" spans="1:6" s="1" customFormat="1" ht="33" customHeight="1">
+      <c r="A12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="10"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="12"/>
+    </row>
+    <row r="13" spans="1:6" s="1" customFormat="1" ht="33" customHeight="1">
+      <c r="A13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="13"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" spans="1:6" s="1" customFormat="1" ht="33" customHeight="1">
+      <c r="A14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="4"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="6"/>
+    </row>
+    <row r="15" spans="1:6" s="1" customFormat="1" ht="33" customHeight="1">
+      <c r="A15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="4"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="6"/>
+    </row>
+    <row r="16" spans="1:6" s="1" customFormat="1"/>
+    <row r="17" s="1" customFormat="1"/>
+    <row r="18" s="1" customFormat="1"/>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="A1:F4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="B14:F14"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A5A5DDE-6EC9-42FB-AAC5-4853295F718B}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:F15"/>
@@ -560,152 +1115,152 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="12"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="12"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
     </row>
     <row r="5" spans="1:6" ht="32.25" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="6"/>
     </row>
     <row r="6" spans="1:6" ht="32.25" customHeight="1">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="5"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="6"/>
     </row>
     <row r="7" spans="1:6" ht="32.25" customHeight="1">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="5"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="6"/>
     </row>
     <row r="8" spans="1:6" ht="32.25" customHeight="1">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="5"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="6"/>
     </row>
     <row r="9" spans="1:6" ht="32.25" customHeight="1">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="5"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="6"/>
     </row>
     <row r="10" spans="1:6" ht="32.25" customHeight="1">
       <c r="A10" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="5"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="6"/>
     </row>
     <row r="11" spans="1:6" ht="32.25" customHeight="1">
       <c r="A11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="6"/>
     </row>
     <row r="12" spans="1:6" ht="32.25" customHeight="1">
       <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="8"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="12"/>
     </row>
     <row r="13" spans="1:6" ht="32.25" customHeight="1">
       <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="5"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="6"/>
     </row>
     <row r="14" spans="1:6" ht="32.25" customHeight="1">
       <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="5"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="6"/>
     </row>
     <row r="15" spans="1:6" ht="32.25" customHeight="1">
       <c r="A15" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="10"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="5"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -728,190 +1283,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F9BD3EB-E568-4259-85D3-9FB93343C031}">
-  <dimension ref="A1:F18"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="20.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1">
-      <c r="A1" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-    </row>
-    <row r="2" spans="1:6" s="1" customFormat="1">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-    </row>
-    <row r="3" spans="1:6" s="1" customFormat="1">
-      <c r="A3" s="12"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-    </row>
-    <row r="4" spans="1:6" s="1" customFormat="1">
-      <c r="A4" s="12"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-    </row>
-    <row r="5" spans="1:6" s="1" customFormat="1" ht="33" customHeight="1">
-      <c r="A5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="5"/>
-    </row>
-    <row r="6" spans="1:6" s="1" customFormat="1" ht="33" customHeight="1">
-      <c r="A6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="5"/>
-    </row>
-    <row r="7" spans="1:6" s="1" customFormat="1" ht="33" customHeight="1">
-      <c r="A7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="5"/>
-    </row>
-    <row r="8" spans="1:6" s="1" customFormat="1" ht="33" customHeight="1">
-      <c r="A8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="5"/>
-    </row>
-    <row r="9" spans="1:6" s="1" customFormat="1" ht="33" customHeight="1">
-      <c r="A9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="5"/>
-    </row>
-    <row r="10" spans="1:6" s="1" customFormat="1" ht="33" customHeight="1">
-      <c r="A10" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="5"/>
-    </row>
-    <row r="11" spans="1:6" s="1" customFormat="1" ht="33" customHeight="1">
-      <c r="A11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="5"/>
-    </row>
-    <row r="12" spans="1:6" s="1" customFormat="1" ht="33" customHeight="1">
-      <c r="A12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="8"/>
-    </row>
-    <row r="13" spans="1:6" s="1" customFormat="1" ht="33" customHeight="1">
-      <c r="A13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="5"/>
-    </row>
-    <row r="14" spans="1:6" s="1" customFormat="1" ht="33" customHeight="1">
-      <c r="A14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="5"/>
-    </row>
-    <row r="15" spans="1:6" s="1" customFormat="1" ht="33" customHeight="1">
-      <c r="A15" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="10"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="5"/>
-    </row>
-    <row r="16" spans="1:6" s="1" customFormat="1"/>
-    <row r="17" s="1" customFormat="1"/>
-    <row r="18" s="1" customFormat="1"/>
-  </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="A1:F4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="B9:F9"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E181C81-39AE-4F69-9F16-D984F7BABC99}">
   <dimension ref="A1:F15"/>
   <sheetViews>
@@ -934,160 +1306,155 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="12"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="12"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
     </row>
     <row r="5" spans="1:6" ht="32.25" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="6"/>
     </row>
     <row r="6" spans="1:6" ht="32.25" customHeight="1">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="5"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="6"/>
     </row>
     <row r="7" spans="1:6" ht="32.25" customHeight="1">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="5"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="6"/>
     </row>
     <row r="8" spans="1:6" ht="32.25" customHeight="1">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="5"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="6"/>
     </row>
     <row r="9" spans="1:6" ht="32.25" customHeight="1">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="5"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="6"/>
     </row>
     <row r="10" spans="1:6" ht="32.25" customHeight="1">
       <c r="A10" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="5"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="6"/>
     </row>
     <row r="11" spans="1:6" ht="32.25" customHeight="1">
       <c r="A11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="6"/>
     </row>
     <row r="12" spans="1:6" ht="32.25" customHeight="1">
       <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="8"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="12"/>
     </row>
     <row r="13" spans="1:6" ht="32.25" customHeight="1">
       <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="5"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="6"/>
     </row>
     <row r="14" spans="1:6" ht="32.25" customHeight="1">
       <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="5"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="6"/>
     </row>
     <row r="15" spans="1:6" ht="32.25" customHeight="1">
       <c r="A15" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="10"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="5"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A1:F4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="B8:F8"/>
     <mergeCell ref="B14:F14"/>
     <mergeCell ref="B15:F15"/>
     <mergeCell ref="B9:F9"/>
@@ -1095,12 +1462,17 @@
     <mergeCell ref="B11:F11"/>
     <mergeCell ref="B12:F12"/>
     <mergeCell ref="B13:F13"/>
+    <mergeCell ref="A1:F4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="B8:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BCB2ABE-E399-45F5-9565-51BEEAECBC6A}">
   <dimension ref="A1:F15"/>
   <sheetViews>
@@ -1123,152 +1495,152 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="12"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="12"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
     </row>
     <row r="5" spans="1:6" ht="26.25" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="6"/>
     </row>
     <row r="6" spans="1:6" ht="26.25" customHeight="1">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="5"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="6"/>
     </row>
     <row r="7" spans="1:6" ht="26.25" customHeight="1">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="5"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="6"/>
     </row>
     <row r="8" spans="1:6" ht="26.25" customHeight="1">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="5"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="6"/>
     </row>
     <row r="9" spans="1:6" ht="26.25" customHeight="1">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="5"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="6"/>
     </row>
     <row r="10" spans="1:6" ht="26.25" customHeight="1">
       <c r="A10" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="5"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="6"/>
     </row>
     <row r="11" spans="1:6" ht="26.25" customHeight="1">
       <c r="A11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="6"/>
     </row>
     <row r="12" spans="1:6" ht="26.25" customHeight="1">
       <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="8"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="12"/>
     </row>
     <row r="13" spans="1:6" ht="26.25" customHeight="1">
       <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="5"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="6"/>
     </row>
     <row r="14" spans="1:6" ht="26.25" customHeight="1">
       <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="5"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="6"/>
     </row>
     <row r="15" spans="1:6" ht="26.25" customHeight="1">
       <c r="A15" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="10"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="5"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -1291,7 +1663,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11C1A6D4-3CB7-4B9E-9FED-5378FD265683}">
   <dimension ref="A1:F16"/>
   <sheetViews>
@@ -1314,174 +1686,174 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="12"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="12"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
     </row>
     <row r="5" spans="1:6" ht="31.5" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="6"/>
     </row>
     <row r="6" spans="1:6" ht="31.5" customHeight="1">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="5"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="6"/>
     </row>
     <row r="7" spans="1:6" ht="31.5" customHeight="1">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="5"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="6"/>
     </row>
     <row r="8" spans="1:6" ht="31.5" customHeight="1">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="5"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="6"/>
     </row>
     <row r="9" spans="1:6" ht="31.5" customHeight="1">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="5"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="6"/>
     </row>
     <row r="10" spans="1:6" ht="31.5" customHeight="1">
       <c r="A10" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="5"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="6"/>
     </row>
     <row r="11" spans="1:6" ht="31.5" customHeight="1">
       <c r="A11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="6"/>
     </row>
     <row r="12" spans="1:6" ht="31.5" customHeight="1">
       <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="8"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="12"/>
     </row>
     <row r="13" spans="1:6" ht="31.5" customHeight="1">
       <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="5"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="6"/>
     </row>
     <row r="14" spans="1:6" ht="31.5" customHeight="1">
       <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="5"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="6"/>
     </row>
     <row r="15" spans="1:6" ht="31.5" customHeight="1">
       <c r="A15" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="10"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="5"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:6" ht="31.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="B13:F13"/>
     <mergeCell ref="A1:F4"/>
     <mergeCell ref="B5:F5"/>
     <mergeCell ref="B6:F6"/>
     <mergeCell ref="B7:F7"/>
     <mergeCell ref="B8:F8"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="B15:F15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{580BBCE6-B546-40F6-9DD0-F23BF0955136}">
   <dimension ref="A1:F16"/>
   <sheetViews>
@@ -1504,156 +1876,161 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="12"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="12"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
     </row>
     <row r="5" spans="1:6" ht="31.5" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="6"/>
     </row>
     <row r="6" spans="1:6" ht="31.5" customHeight="1">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="5"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="6"/>
     </row>
     <row r="7" spans="1:6" ht="31.5" customHeight="1">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="5"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="6"/>
     </row>
     <row r="8" spans="1:6" ht="31.5" customHeight="1">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="5"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="6"/>
     </row>
     <row r="9" spans="1:6" ht="31.5" customHeight="1">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="5"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="6"/>
     </row>
     <row r="10" spans="1:6" ht="31.5" customHeight="1">
       <c r="A10" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="5"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="6"/>
     </row>
     <row r="11" spans="1:6" ht="31.5" customHeight="1">
       <c r="A11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="6"/>
     </row>
     <row r="12" spans="1:6" ht="31.5" customHeight="1">
       <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="8"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="12"/>
     </row>
     <row r="13" spans="1:6" ht="31.5" customHeight="1">
       <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="5"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="6"/>
     </row>
     <row r="14" spans="1:6" ht="31.5" customHeight="1">
       <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="5"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="6"/>
     </row>
     <row r="15" spans="1:6" ht="31.5" customHeight="1">
       <c r="A15" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="10"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="5"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:6" ht="31.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="B15:F15"/>
     <mergeCell ref="B9:F9"/>
     <mergeCell ref="B10:F10"/>
     <mergeCell ref="A1:F4"/>
@@ -1661,17 +2038,12 @@
     <mergeCell ref="B6:F6"/>
     <mergeCell ref="B7:F7"/>
     <mergeCell ref="B8:F8"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="B15:F15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54C895E2-A8D5-4E40-9E06-8307316A6635}">
   <dimension ref="A1:F16"/>
   <sheetViews>
@@ -1694,152 +2066,152 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="12"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="12"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
     </row>
     <row r="5" spans="1:6" ht="31.5" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="6"/>
     </row>
     <row r="6" spans="1:6" ht="31.5" customHeight="1">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="5"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="6"/>
     </row>
     <row r="7" spans="1:6" ht="31.5" customHeight="1">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="5"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="6"/>
     </row>
     <row r="8" spans="1:6" ht="31.5" customHeight="1">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="5"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="6"/>
     </row>
     <row r="9" spans="1:6" ht="31.5" customHeight="1">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="5"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="6"/>
     </row>
     <row r="10" spans="1:6" ht="31.5" customHeight="1">
       <c r="A10" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="5"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="6"/>
     </row>
     <row r="11" spans="1:6" ht="31.5" customHeight="1">
       <c r="A11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="6"/>
     </row>
     <row r="12" spans="1:6" ht="31.5" customHeight="1">
       <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="8"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="12"/>
     </row>
     <row r="13" spans="1:6" ht="31.5" customHeight="1">
       <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="5"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="6"/>
     </row>
     <row r="14" spans="1:6" ht="31.5" customHeight="1">
       <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="5"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="6"/>
     </row>
     <row r="15" spans="1:6" ht="31.5" customHeight="1">
       <c r="A15" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="10"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="5"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:6" ht="31.5" customHeight="1"/>
   </sheetData>
@@ -1862,7 +2234,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEEB2C0C-DECC-46BD-8A72-7A56242D130F}">
   <dimension ref="A1:F15"/>
   <sheetViews>
@@ -1884,152 +2256,152 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="12"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="12"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
     </row>
     <row r="5" spans="1:6" ht="42.75" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="6"/>
     </row>
     <row r="6" spans="1:6" ht="42.75" customHeight="1">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="5"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="6"/>
     </row>
     <row r="7" spans="1:6" ht="42.75" customHeight="1">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="5"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="6"/>
     </row>
     <row r="8" spans="1:6" ht="42.75" customHeight="1">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="5"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="6"/>
     </row>
     <row r="9" spans="1:6" ht="42.75" customHeight="1">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="5"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="6"/>
     </row>
     <row r="10" spans="1:6" ht="42.75" customHeight="1">
       <c r="A10" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="5"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="6"/>
     </row>
     <row r="11" spans="1:6" ht="42.75" customHeight="1">
       <c r="A11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="6"/>
     </row>
     <row r="12" spans="1:6" ht="42.75" customHeight="1">
       <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="8"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="12"/>
     </row>
     <row r="13" spans="1:6" ht="42.75" customHeight="1">
       <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="5"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="6"/>
     </row>
     <row r="14" spans="1:6" ht="42.75" customHeight="1">
       <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="5"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="6"/>
     </row>
     <row r="15" spans="1:6" ht="42.75" customHeight="1">
       <c r="A15" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="10"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="5"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -2051,7 +2423,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AADA1392-0294-4F4D-8E0A-8F9193D259CE}">
   <dimension ref="A1:F15"/>
   <sheetViews>
@@ -2073,152 +2445,152 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="12"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="12"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
     </row>
     <row r="5" spans="1:6" ht="36.75" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="6"/>
     </row>
     <row r="6" spans="1:6" ht="36.75" customHeight="1">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="5"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="6"/>
     </row>
     <row r="7" spans="1:6" ht="36.75" customHeight="1">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="5"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="6"/>
     </row>
     <row r="8" spans="1:6" ht="36.75" customHeight="1">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="5"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="6"/>
     </row>
     <row r="9" spans="1:6" ht="36.75" customHeight="1">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="5"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="6"/>
     </row>
     <row r="10" spans="1:6" ht="36.75" customHeight="1">
       <c r="A10" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="5"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="6"/>
     </row>
     <row r="11" spans="1:6" ht="36.75" customHeight="1">
       <c r="A11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="6"/>
     </row>
     <row r="12" spans="1:6" ht="36.75" customHeight="1">
       <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="8"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="12"/>
     </row>
     <row r="13" spans="1:6" ht="36.75" customHeight="1">
       <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="5"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="6"/>
     </row>
     <row r="14" spans="1:6" ht="36.75" customHeight="1">
       <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="5"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="6"/>
     </row>
     <row r="15" spans="1:6" ht="36.75" customHeight="1">
       <c r="A15" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="10"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="5"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -2237,193 +2609,4 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1276F2D7-A698-4C6B-BDE2-9A1596771C81}">
-  <dimension ref="A1:F15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A1:XFD18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="23.28515625" customWidth="1"/>
-    <col min="2" max="2" width="25.28515625" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" customWidth="1"/>
-    <col min="4" max="4" width="36" customWidth="1"/>
-    <col min="5" max="5" width="34.85546875" customWidth="1"/>
-    <col min="6" max="6" width="35" customWidth="1"/>
-    <col min="7" max="7" width="25.28515625" customWidth="1"/>
-    <col min="8" max="8" width="23.5703125" customWidth="1"/>
-    <col min="9" max="9" width="26.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="12"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="12"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-    </row>
-    <row r="5" spans="1:6" ht="33" customHeight="1">
-      <c r="A5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="5"/>
-    </row>
-    <row r="6" spans="1:6" ht="33" customHeight="1">
-      <c r="A6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="5"/>
-    </row>
-    <row r="7" spans="1:6" ht="33" customHeight="1">
-      <c r="A7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="5"/>
-    </row>
-    <row r="8" spans="1:6" ht="33" customHeight="1">
-      <c r="A8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="5"/>
-    </row>
-    <row r="9" spans="1:6" ht="33" customHeight="1">
-      <c r="A9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="5"/>
-    </row>
-    <row r="10" spans="1:6" ht="33" customHeight="1">
-      <c r="A10" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="5"/>
-    </row>
-    <row r="11" spans="1:6" ht="33" customHeight="1">
-      <c r="A11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="5"/>
-    </row>
-    <row r="12" spans="1:6" ht="33" customHeight="1">
-      <c r="A12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="8"/>
-    </row>
-    <row r="13" spans="1:6" ht="33" customHeight="1">
-      <c r="A13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="5"/>
-    </row>
-    <row r="14" spans="1:6" ht="33" customHeight="1">
-      <c r="A14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="5"/>
-    </row>
-    <row r="15" spans="1:6" ht="33" customHeight="1">
-      <c r="A15" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="10"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="5"/>
-    </row>
-  </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="A1:F4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="B14:F14"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>